--- a/biology/Zoologie/Dione_moneta/Dione_moneta.xlsx
+++ b/biology/Zoologie/Dione_moneta/Dione_moneta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dione moneta est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Heliconiinae et du genre Dione.
 </t>
@@ -511,16 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dione moneta a été décrit par Jacob Hübner en 1825.
-Synonymes : Argynnis moneta ; Agraulis moneta Godman &amp; Salvin, [1881][1].
-Sous-espèces
-Dione moneta moneta ; présent dans toute l'Amérique Centrale et en Amérique du Sud.
-Dione moneta butleri Stichel, [1908] ; présent en Colombie et en Équateur.
-Dione moneta poeyii Butler, 1873 ; présent au Mexique[1].
-Noms vernaculaires
-Dione moneta se nomme Mexican Silverspot ou Moneta Longwing en anglais[1],[2].
+Synonymes : Argynnis moneta ; Agraulis moneta Godman &amp; Salvin, .
 </t>
         </is>
       </c>
@@ -546,17 +554,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dione moneta est un papillon d'une envergure de 70 mm à 83 mm aux ailes antérieures à bord externe concave[3],[4].
-Le dessus est orange, plus rouge dans la partie basale, veiné de marron à noir.
-Le revers est jaune brun taché de blanc et de rose dans la partie basale des ailes antérieures[5].
-Chenille
-Sa chenille, marron tachée de blanc, de gris et d'orange, couverte de courtes épines, porte deux courtes cornes sur sa tête[5].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dione moneta moneta ; présent dans toute l'Amérique Centrale et en Amérique du Sud.
+Dione moneta butleri Stichel,  ; présent en Colombie et en Équateur.
+Dione moneta poeyii Butler, 1873 ; présent au Mexique.</t>
         </is>
       </c>
     </row>
@@ -581,15 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Passifloraceae, des Granadilla, des Plectostemma, des Passiflora, Passiflora adenopoda, Passiflora capsularis et Tetrastylis lobata[1],[6].
-Période de vol
-Dione moneta vole d'avril à décembre au Texas, toute l'année en zone tropicale[3].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dione moneta se nomme Mexican Silverspot ou Moneta Longwing en anglais,.
 </t>
         </is>
       </c>
@@ -615,16 +629,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dione moneta est présent dans le sud des USA, en Arizona, au Nouveau-Mexique et au Texas, au Mexique, en Amérique Centrale et en Amérique du Sud, en Colombie, en Équateur, au Pérou, en Bolivie, dans le nord de l'Argentine, au Brésil[1],[3],[2].
-Biotope
-Dione moneta réside principalement dans les zones fortement ensoleillées des forêts, entre 500 m et 3 500 m[5].
-Sur les autres projets Wikimedia :
-Dione moneta, sur Wikimedia CommonsDione moneta, sur Wikispecies
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dione moneta est un papillon d'une envergure de 70 mm à 83 mm aux ailes antérieures à bord externe concave,.
+Le dessus est orange, plus rouge dans la partie basale, veiné de marron à noir.
+Le revers est jaune brun taché de blanc et de rose dans la partie basale des ailes antérieures.
 </t>
         </is>
       </c>
@@ -650,10 +664,195 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa chenille, marron tachée de blanc, de gris et d'orange, couverte de courtes épines, porte deux courtes cornes sur sa tête.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dione_moneta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dione_moneta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Passifloraceae, des Granadilla, des Plectostemma, des Passiflora, Passiflora adenopoda, Passiflora capsularis et Tetrastylis lobata,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dione_moneta</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dione_moneta</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Période de vol</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dione moneta vole d'avril à décembre au Texas, toute l'année en zone tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dione_moneta</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dione_moneta</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dione moneta est présent dans le sud des USA, en Arizona, au Nouveau-Mexique et au Texas, au Mexique, en Amérique Centrale et en Amérique du Sud, en Colombie, en Équateur, au Pérou, en Bolivie, dans le nord de l'Argentine, au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dione_moneta</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dione_moneta</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dione moneta réside principalement dans les zones fortement ensoleillées des forêts, entre 500 m et 3 500 m.
+Sur les autres projets Wikimedia :
+Dione moneta, sur Wikimedia CommonsDione moneta, sur Wikispecies
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dione_moneta</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dione_moneta</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
